--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1486.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1486.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.495719079008645</v>
+        <v>1.497298240661621</v>
       </c>
       <c r="B1">
-        <v>2.545953493327088</v>
+        <v>3.986066579818726</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.615141868591309</v>
       </c>
       <c r="D1">
-        <v>1.610111943058486</v>
+        <v>1.513768434524536</v>
       </c>
       <c r="E1">
-        <v>0.6059963456350772</v>
+        <v>0.9817589521408081</v>
       </c>
     </row>
   </sheetData>
